--- a/biology/Botanique/Axonopus/Axonopus.xlsx
+++ b/biology/Botanique/Axonopus/Axonopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axonopus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique du Sud, qui comprend 89 espèces acceptées.
 </t>
@@ -511,15 +523,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genres Axonopus sont des plantes herbacées généralement vivaces, rarement annuelles, stolonifères ou cespiteuses. les tiges, dressées, peuvent atteindre de 15 à 100 cm de long et ont des entrenœuds creux ou pleins. Les feuilles, souvent groupée à la base, sans oreillettes, ont un limbe linéaire-lancéolé à ovale-lancéolé, plus ou moins large, plat ou plié[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genres Axonopus sont des plantes herbacées généralement vivaces, rarement annuelles, stolonifères ou cespiteuses. les tiges, dressées, peuvent atteindre de 15 à 100 cm de long et ont des entrenœuds creux ou pleins. Les feuilles, souvent groupée à la base, sans oreillettes, ont un limbe linéaire-lancéolé à ovale-lancéolé, plus ou moins large, plat ou plié.
 L'inflorescence est composée de racèmes regroupant des épillets bisexués ou hermaphrodites. Elle est formée de ramifications principales spiciformes, rarement digitées, les ramifications primaires étant insérées tout autour de l'axe principal.
 Les épillets fertiles, oblongs ou elliptiques, ou lancéolés, ou ovales, ou obovales, longs de 1,6 à 5,4 mm sont comprimés dorsoventralement. A maturité ils se détachent avec les glumes.
 La glume supérieure, membraneuse, long par rapport à la lemme adjacente, non aristée, présente 4 à 5 nervures. La glume inférieure est généralement absente.
 Les fleurons fertiles sont sous-tendus par une lemme entière, plus ferme que les glumes, lisse à striée, et une paléole relativement longue.
-Ils comptent 2 lodicules libres, charnus et glabres, 3 étamines aux anthères non pénicillées et un ovaire glabre aux styles libres dès la base et 2 stigmates blancs ou rouges[3].
-Le fruit est un caryopse petit, ellipsoïde, comprimé dorso-ventralement, au hile court et présentant un embryon relativement grand, sans épiblaste, avec une queue scutellaire et un entrenœud du mésocotyle allongé[3].
+Ils comptent 2 lodicules libres, charnus et glabres, 3 étamines aux anthères non pénicillées et un ovaire glabre aux styles libres dès la base et 2 stigmates blancs ou rouges.
+Le fruit est un caryopse petit, ellipsoïde, comprimé dorso-ventralement, au hile court et présentant un embryon relativement grand, sans épiblaste, avec une queue scutellaire et un entrenœud du mésocotyle allongé.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (29 mai 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 mai 2018) :
 Axonopus amapaensis G.A.Black
 Axonopus anceps (Mez) C.L.Hitchc.
 Axonopus andinus G.A.Black
